--- a/02-documentation/01-architecture_tender.xlsx
+++ b/02-documentation/01-architecture_tender.xlsx
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="01-tender" sheetId="1" r:id="rId1"/>
     <sheet name="02-tender-items" sheetId="2" r:id="rId2"/>
-    <sheet name="05-ug_data" sheetId="3" r:id="rId3"/>
-    <sheet name="06-notes" sheetId="4" r:id="rId4"/>
+    <sheet name="03-tender-participants" sheetId="3" r:id="rId3"/>
+    <sheet name="04-tender-effort" sheetId="4" r:id="rId4"/>
+    <sheet name="05-ug_data" sheetId="5" r:id="rId5"/>
+    <sheet name="06-notes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -518,7 +520,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -536,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -554,7 +556,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -600,7 +602,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -618,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -646,7 +648,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -658,13 +660,13 @@
         <v>6</v>
       </c>
       <c r="N5">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -692,7 +694,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2641</v>
+        <v>2678</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -738,7 +740,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>17</v>
       </c>
       <c r="O7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>139287</v>
+        <v>139697</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -784,7 +786,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -796,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>138257</v>
+        <v>137873</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -830,7 +832,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -876,7 +878,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -885,16 +887,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>43467</v>
+        <v>42006</v>
       </c>
       <c r="J10" s="2">
-        <v>43830</v>
+        <v>42369</v>
       </c>
       <c r="K10" s="2">
-        <v>43683</v>
+        <v>42216</v>
       </c>
       <c r="L10">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
@@ -919,25 +921,25 @@
         </is>
       </c>
       <c r="F11">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G11">
-        <v>121830</v>
+        <v>119966</v>
       </c>
       <c r="H11">
-        <v>0.245251458945099</v>
+        <v>0.2684197046017246</v>
       </c>
       <c r="I11" s="2">
-        <v>41352</v>
+        <v>41297</v>
       </c>
       <c r="J11" s="2">
-        <v>43830</v>
+        <v>42369</v>
       </c>
       <c r="K11" s="2">
-        <v>43658</v>
+        <v>42194</v>
       </c>
       <c r="L11">
-        <v>562</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
@@ -962,7 +964,7 @@
         </is>
       </c>
       <c r="F12">
-        <v>161418</v>
+        <v>163982</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -971,25 +973,25 @@
         <v>1</v>
       </c>
       <c r="R12">
-        <v>399396.4624839237</v>
+        <v>1371709.289204547</v>
       </c>
       <c r="S12">
-        <v>56301572.52637529</v>
+        <v>400210489.2621149</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V12">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="W12">
-        <v>12549.875</v>
+        <v>7998</v>
       </c>
       <c r="X12">
-        <v>22500000000</v>
+        <v>160894805068.8</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
@@ -1129,7 +1131,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         </is>
       </c>
       <c r="F3">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1704219</v>
+        <v>1351089</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1211,7 +1213,7 @@
         </is>
       </c>
       <c r="F4">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1220,10 +1222,10 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1.00066753442231</v>
+        <v>1.000716203588269</v>
       </c>
       <c r="O4">
-        <v>0.02636750532619715</v>
+        <v>0.02691783300458545</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -1238,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -1268,7 +1270,7 @@
         </is>
       </c>
       <c r="F5">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1286,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>233110</v>
+        <v>159460</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1314,7 +1316,7 @@
         </is>
       </c>
       <c r="F6">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1332,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>2625</v>
+        <v>2646</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1360,7 +1362,7 @@
         </is>
       </c>
       <c r="F7">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1369,25 +1371,25 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>6024.610330593792</v>
+        <v>7228.270312103479</v>
       </c>
       <c r="O7">
-        <v>863845.8551176601</v>
+        <v>616949.0882505206</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S7">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="T7">
-        <v>861303868</v>
+        <v>400312500</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -1417,7 +1419,7 @@
         </is>
       </c>
       <c r="F8">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1426,25 +1428,25 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3115013.677830772</v>
+        <v>49009662.86689686</v>
       </c>
       <c r="O8">
-        <v>3417124067.272079</v>
+        <v>56046964875.9234</v>
       </c>
       <c r="P8">
         <v>0.0001</v>
       </c>
       <c r="Q8">
-        <v>180</v>
+        <v>272.55</v>
       </c>
       <c r="R8">
-        <v>813</v>
+        <v>1281</v>
       </c>
       <c r="S8">
-        <v>4300</v>
+        <v>6840</v>
       </c>
       <c r="T8">
-        <v>4424039092500.48</v>
+        <v>65154634923000</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1474,7 +1476,7 @@
         </is>
       </c>
       <c r="F9">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1492,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>84340</v>
+        <v>68172</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1520,7 +1522,7 @@
         </is>
       </c>
       <c r="F10">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1529,7 +1531,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>84</v>
@@ -1538,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>82050</v>
+        <v>66424</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -1566,7 +1568,7 @@
         </is>
       </c>
       <c r="F11">
-        <v>1704781</v>
+        <v>1351571</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1584,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12744</v>
+        <v>11917</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1596,6 +1598,728 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>new_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_names</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>original_label</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>skim_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_missing</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>complete_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>character.min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>character.max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>character.empty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>character.n_unique</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>character.whitespace</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>logical.mean</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>logical.count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>year_month</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>7704788</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>codigo item compra</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Código do item da compra no SIASG. O código do item é um número composto por 22 dígitos, formado através a seguinte lógica: 6 dígitos do código da Unidade Gestora + 2 dígitos da modalidade de compra + 5 dígitos do número da licitação no ano + 4 dígitos do ano da licitação + 5 dígitos do sequencial que identifica o item dentro da licitação.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>7704788</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+      <c r="J3">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1385088</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bidder_id</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>codigo participante</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CNPJ do participante na licitação</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>7704788</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>81363</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D_winner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>flag vencedor</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Indica se o participante é vencedor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>logical</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>7704788</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0.1754163774525659</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>FAL: 6353242, TRU: 1351546</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="20.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>new_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_names</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>original_label</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>skim_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>N_obs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>n_missing</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>complete_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Date.min</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Date.max</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Date.median</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Date.n_unique</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>character.min</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>character.max</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>character.empty</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>character.n_unique</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>character.whitespace</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.sd</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.p0</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.p25</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.p50</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.p75</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.p100</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>numeric.hist</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>year_month</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>874861</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tender_id</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>numero licitacao</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Número que identifica a licitação no SIASG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>874861</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>17</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>145771</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ug_id</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>codigo ug</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Código da Unidade Gestora responsável pela licitação. UNIDADE GESTORA (UG) - Unidade Orçamentária ou Administrativa que realiza atos de gestão orçamentária, financeira e/ou patrimonial, cujo titular, em consequência, está sujeito a tomada de contas anual na conformidade do disposto nos artigos 81 e 82 do Decreto-lei Nº 200, de 25 de fevereiro de 1967. Fonte: Manual do SIAFI.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>874861</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2513</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>effort_id</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>codigo empenho</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Código do Empenho da Licitação</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>874861</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
+      <c r="N5">
+        <v>23</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>874666</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>effort_date_start</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>data emissao empenho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Data de Emissão do Empenho </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>874861</v>
+      </c>
+      <c r="G6">
+        <v>665</v>
+      </c>
+      <c r="H6">
+        <v>0.9992398792493893</v>
+      </c>
+      <c r="I6" s="2">
+        <v>41652</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44196</v>
+      </c>
+      <c r="K6" s="2">
+        <v>42334</v>
+      </c>
+      <c r="L6">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>effort_detail</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>observacao empenho</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Observação do Empenho</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>character</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>874861</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>237</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>695012</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>effort_amount</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>valor empenho r</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Valor do Empenho (R$)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>numeric</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>874861</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>47390.80909310165</v>
+      </c>
+      <c r="S8">
+        <v>1605719.289893543</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>607.95</v>
+      </c>
+      <c r="V8">
+        <v>2400</v>
+      </c>
+      <c r="W8">
+        <v>9167.879999999999</v>
+      </c>
+      <c r="X8">
+        <v>622112987.91</v>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>▇▁▁▁▁</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -2043,7 +2767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
